--- a/SylvanExcelTest/TestData/Data_FIN.xlsx
+++ b/SylvanExcelTest/TestData/Data_FIN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ExcelTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Source\SylvanExcelTest\SylvanExcelTest\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C8616F-9BB0-4559-9B6E-A4E7BE6B0A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D1BF4A8-389E-480D-BCE1-B9B2C7962EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Käyttäjät" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>Id</t>
   </si>
@@ -74,6 +74,15 @@
   </si>
   <si>
     <t>Sähköposti</t>
+  </si>
+  <si>
+    <t>Johtava ohjelmistosuunnittelija</t>
+  </si>
+  <si>
+    <t>Työnimike</t>
+  </si>
+  <si>
+    <t>Toimitusjohtaja</t>
   </si>
 </sst>
 </file>
@@ -411,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -422,9 +431,10 @@
     <col min="1" max="1" width="6.77734375" customWidth="1"/>
     <col min="2" max="2" width="10.88671875" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -437,8 +447,11 @@
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -451,8 +464,11 @@
       <c r="D2">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -465,8 +481,11 @@
       <c r="D3">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -480,7 +499,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -491,7 +510,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
